--- a/biology/Médecine/Automate_d'analyses_médicales/Automate_d'analyses_médicales.xlsx
+++ b/biology/Médecine/Automate_d'analyses_médicales/Automate_d'analyses_médicales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Automate_d%27analyses_m%C3%A9dicales</t>
+          <t>Automate_d'analyses_médicales</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les automates d'analyses médicales permettent de réaliser un certain nombre d'analyses médicales en un temps limité.
 L'augmentation des demandes de diagnostics biologiques favorise l'apparition d'automates de plus en plus rapides et fiables au sein des laboratoires d'analyses médicales, grâce à l'industrie du diagnostic in vitro.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Automate_d%27analyses_m%C3%A9dicales</t>
+          <t>Automate_d'analyses_médicales</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Qualification d'un automate</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant leur utilisation pour les analyses, et après chaque déménagement, ces automates doivent être « qualifiés » c'est-à-dire que chaque paramètre biologique analysé doit subir une validation de méthode analytique (sensibilité, spécificité, limite de détection, linéarité, seuil de quantification, répétabilité, reproductibilité, biais, incertitude…) et une corrélation avec les résultats de l'automate précédent.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Automate_d%27analyses_m%C3%A9dicales</t>
+          <t>Automate_d'analyses_médicales</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Maintenances et contrôles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ensuite, tout au long de son utilisation, il devra subir des maintenances régulières (quotidienne, hebdomadaire ou mensuelle) par le personnel qualifié du laboratoire, communément par les technologistes médicaux, technologues ou techniciens de laboratoire ainsi que des maintenances plus poussées (changement de pièces importantes) par le SAV du constructeur.
 Les résultats de ces automates doivent être contrôlés avec des contrôles de qualité (externes ou internes) et, à chaque nouveau lot de réactif, ils doivent être calibrés.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Automate_d%27analyses_m%C3%A9dicales</t>
+          <t>Automate_d'analyses_médicales</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,54 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Automates de cytologie
-Ces automates permettent de compter les cellules du sang ou d'autres liquides biologiques et d'en apprécier la morphologie.
-Automates de cytologie hématologique
-Ces automates permettent de compter les cellules sanguines (d'en évaluer la taille et de déterminer le contenu en hémoglobine des érythrocytes).
+          <t>Automates de cytologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces automates permettent de compter les cellules du sang ou d'autres liquides biologiques et d'en apprécier la morphologie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Automates de cytologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Automates de cytologie hématologique</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ces automates permettent de compter les cellules sanguines (d'en évaluer la taille et de déterminer le contenu en hémoglobine des érythrocytes).
 Quelques exemples : 
 XN-9000, XN-3000, XN-1000, XE-2100, XS, XT par SYSMEX
 Mindray BC5800, BC6800 par A.MENARINI diagnostics
@@ -591,28 +651,177 @@
 CELLTAC E MEK-7222 / MEK-8222 de NIHON KOHDEN
 BIOCODE HYCEL Diana 5 / Xenia / Hycel 9000
 etc
-DIRUI BF-6500/BF-5180
-Automates de cytologie urinaire
-Ils permettent d'aider à dénombrer et déterminer la nature de certains éléments présents dans les urines (cristaux, cellules…)
+DIRUI BF-6500/BF-5180</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Automates de cytologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Automates de cytologie urinaire</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ils permettent d'aider à dénombrer et déterminer la nature de certains éléments présents dans les urines (cristaux, cellules…)
 Urised revendeur i2a
 IQ200 de Beckman Coulter, Iris Diagnostics racheté en septembre 2012 Groupe Danaher l'intégrant à Beckman Coulter
 UF50, 100, 500, 1000i , 4000 , 5000 de SYSMEX
 SEDIMAX revendeur A.MENARINI diagnostics
 AUTION Hybrid de ELITech France
 H-800/H-1000/FUS-200
-Urisys 1100 / 2400 de Roche diagnostics
-Automates de biochimie
-Ces automates réalisent des réactions chimiques, enzymatiques ou immunologiques (immuno-chimiques/enzymatiques) dans le but de doser un composé chimique dans un liquide biologique de l'organisme (sang, urine, liquide d'épanchement ou de ponction)
+Urisys 1100 / 2400 de Roche diagnostics</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Automates de biochimie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces automates réalisent des réactions chimiques, enzymatiques ou immunologiques (immuno-chimiques/enzymatiques) dans le but de doser un composé chimique dans un liquide biologique de l'organisme (sang, urine, liquide d'épanchement ou de ponction)
 Ils sont historiquement divisés en deux types d'automates, les automates de chimie dont la réaction est chimique directe et les automates d'immuno-analyse dont la réaction de dosage utilise des anticorps monoclonaux.
 Dorénavant ces types d'examens sont de plus en plus réunis soit au sein du même automate soit au sein de chaînes d'automates de la même entreprise.
-Automates de chimie pure
-Ces automates permettent le dosage des ions ou de molécules simples tel que le Potassium, le Sodium, les bicarbonates, le Cholestérol, les Triglycérides, la créatinine entre autres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Automates de biochimie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Automates de chimie pure</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ces automates permettent le dosage des ions ou de molécules simples tel que le Potassium, le Sodium, les bicarbonates, le Cholestérol, les Triglycérides, la créatinine entre autres.
 AU400, 480, 600, 640, 680, 2700, 5400, 5800 de Beckman Coulter
 ABX Pentra 400 et Pentra C200 de HORIBA Medical
 CS-800/CS-400/CS-240 DIRUI industrial
-Module C du COBAS de Roche diagnostics
-Automates d'immuno-Analyse
-Ces systèmes permettent le dosage de marqueurs cardiaques, thyroïdiens, tumoraux, de fertilité, d'anémie ou encore la détermination des sérologies infectieux.
+Module C du COBAS de Roche diagnostics</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Automates de biochimie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Automates d'immuno-Analyse</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ces systèmes permettent le dosage de marqueurs cardiaques, thyroïdiens, tumoraux, de fertilité, d'anémie ou encore la détermination des sérologies infectieux.
 Access2 et DxI 600, 800, chimiluminescence de Beckman Coulter
 Vidas de bioMérieux
 ADVIA Centaur, ADVIA 1800 de Siemens (ex Bayer Diagnostics)
@@ -621,73 +830,511 @@
 Axsym, Architect de Abbott
 Integra 400-700, Modular, Elecsys 2010, Cobas de Roche diagnostics
 ECi et Vitros 3600 (immuno-analyse) de Ortho Clinical Diagnostics
-LP G600 et LP G1200 de Fujirebio
-Automates mixtes
-Fusion 5.1, Vitros 5600 de Ortho Clinical Diagnostics
-Automates d'hémostase
-Ces automates permettent de réaliser les temps de coagulation pour la surveillance des traitements anticoagulants ou l'évaluation des fonctions hépatiques par exemple.
+LP G600 et LP G1200 de Fujirebio</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Automates de biochimie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Automates mixtes</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Fusion 5.1, Vitros 5600 de Ortho Clinical Diagnostics</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Automates d'hémostase</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ces automates permettent de réaliser les temps de coagulation pour la surveillance des traitements anticoagulants ou l'évaluation des fonctions hépatiques par exemple.
 Quelques exemples :
 Amax 190, 400 de Sigma diagnostics
 CA 1000, 1500, 7000 de Sysmex
 STA Compact, STA-R, STA Satellite de Stago
 CS-2000i, BCS XP de Siemens (ex Dade Behring)
-ACL TOP de Instrumentation Laboratory
-Automates de bactériologie
-Ces automates permettent d'aider à l'identification de germes, à déterminer leurs résistances à des panels d'antibiotiques, à automatiser des cultures.
-Automates pour identification biochimique et tests d'antibiotiques
-Vitek, Vitek2 de bioMérieux
+ACL TOP de Instrumentation Laboratory</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Automates de bactériologie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces automates permettent d'aider à l'identification de germes, à déterminer leurs résistances à des panels d'antibiotiques, à automatiser des cultures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Automates de bactériologie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Automates pour identification biochimique et tests d'antibiotiques</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Vitek, Vitek2 de bioMérieux
 Phoenix de Becton Dickinson
 Microscan Walkaway de Siemens
 AC-STD de Vikalex Technologies
-…
-Automates d'identification par spectrométrie de masse
-Spectromètre de masse Maldi-Tof Shimadzu, logiciel Saramis (Anagnostec), logiciel SirWeb MALDI-TOF (société I2A[1])
-Spectromètre de masse MALDI Biotyper de Bruker Daltonics Leader Mondial en technologie MALDI-Tof, logiciel SirWeb MALDI-TOF (société I2A[1])
+…</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Automates de bactériologie</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Automates d'identification par spectrométrie de masse</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Spectromètre de masse Maldi-Tof Shimadzu, logiciel Saramis (Anagnostec), logiciel SirWeb MALDI-TOF (société I2A)
+Spectromètre de masse MALDI Biotyper de Bruker Daltonics Leader Mondial en technologie MALDI-Tof, logiciel SirWeb MALDI-TOF (société I2A)
 Spectromètre de masse Vitek MS (technologie Maldi-Tof) de Biomérieux, logiciel Myla
-Automate d'Identification Microbienne ANDROMAS, logiciel SirWeb MALDI-TOF (société I2A[1])
-Automates de gestion d'antibiogrammes en milieu solide
-Scan 1200 de Interscience
+Automate d'Identification Microbienne ANDROMAS, logiciel SirWeb MALDI-TOF (société I2A)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Automates de bactériologie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Automates de gestion d'antibiogrammes en milieu solide</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Scan 1200 de Interscience
 Sirscan Auto de i2a
 Sirscan 2000 de i2a
 Sirscan Micro de i2a
 Sirscan Lynx de i2a
 Osiris de Bio-Rad
-ADAGIO de Bio-Rad
-Ensemenceurs
-Avec gestion des différentes formes de boîtes et du dépôts de disques d'antibiotiques.
+ADAGIO de Bio-Rad</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Automates de bactériologie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Ensemenceurs</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec gestion des différentes formes de boîtes et du dépôts de disques d'antibiotiques.
 WASP de Siemens
 Le WASP ensemence automatiquement les boîtes de cultures et prépare les bouillons, les GRAM et les antibiogrammes en gélose (ensemencement des milieux et dépôt des disques par distributeurs de disques ronds). 
-Prelud de i2a[1]
+Prelud de i2a
 Le PRELUD ensemence automatiquement les boîtes de cultures et prépare automatiquement les antibiogrammes en gélose (ensemencement des milieux et dépôt des disques) sur boîtes rondes ou carrées. Seul Ensemenceur d'Antibiogrammes et de dépôts de disques en dynamique 2 carrousels de 60 cartouches à bord (réfrigérés avec contrôle de l'humidité), présentant la plus grosse capacité de Boîtes
 Le BD Innova est un ensemenceur qui permet un débouchage et un rebouchage automatique des échantillons, de travailler sans aucun consommable à usage unique pour un coût de fonctionnement réduit, est compatible avec toutes les tailles de containers sans aucun adaptateur. Il travaille en total autonomie pendant une heure en système totalement clos pour éviter les risques de contamination.
 PREVI Isola Biomérieux
 Le PREVI Isola est un ensemenceur haute cadence pour tous types de prélèvements, il constitue un véritable progrès en matière d'isolement des colonies par l'innovation qu'il apporte (ensemencement par rotation à 330 ° sur la gélose)
-Automates de détection de pousse en milieu liquide
-Bac/T Alert de Biomérieux
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Automates de bactériologie</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Automates de détection de pousse en milieu liquide</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Bac/T Alert de Biomérieux
 Bactec 9000, Bactec FX, Bactec MGIT 320 et MGIT960 de Becton-Dickinson
-VersaTREK Hémocultures  / Mycobactéries Revendeur i2a
-Automates de coloration de lames
-Aerospray GRAM et Aerospray BK de ELITech France
+VersaTREK Hémocultures  / Mycobactéries Revendeur i2a</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Automates de bactériologie</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Automates de coloration de lames</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Aerospray GRAM et Aerospray BK de ELITech France
 SlidemarkerLH, DxHSMS étaleur-colorateur de Beckman Coulter
-RAL Stainer revendeur i2a[1]
-Smartcolor Fumouze Diagnostics
-Automates d'immuno-hématologie
-Les automates d'immuno-hématologie permettent notamment de déterminer le groupage sanguin, Rhésus, Kell, RAI (Recherche d'Agglutinines Irrégulières)
+RAL Stainer revendeur i2a
+Smartcolor Fumouze Diagnostics</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Automates d'immuno-hématologie</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Les automates d'immuno-hématologie permettent notamment de déterminer le groupage sanguin, Rhésus, Kell, RAI (Recherche d'Agglutinines Irrégulières)
 WADiana et ERYTRA de Diagnostic Grifols
 NEO et Echo de la société IMMUCOR
-Comet de ABO DIAG[2]
+Comet de ABO DIAG
 Swing, Saxo, Techno, Tango, IH-500, IH-1000 (logiciel IH-Com) Biorad
 Mitis 1 et 2 (ne sont plus utilisés), ITM(middleware) /Autovue 1re génération (1G) puis Autovue Innova (2e génération) et Ultra (qui est un Autovue 1re génération transformé en Autovue Innova par l'installation d'un "kit"), Vision  de Ortho Clinical diagnostics
-Qwalys 2, Qwalys 3 de Diagast
-Automates des Gaz du sang
-cobas b 123 POC System de Roche diagnostics
+Qwalys 2, Qwalys 3 de Diagast</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Automates des Gaz du sang</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>cobas b 123 POC System de Roche diagnostics
 Omni C, OmniS (Cobas B221) de Roche diagnostics
 Opti CCA, Opti R de Roche diagnostics (ex AVL)
 PDM2 de Nova biomedical
 Rapidlab 800, 864, 1200, Rapidpoint 400 de Siemens (ex Bayer Diagnostics)
-ABL800, ABL80, ABL5, NP7 de Radiometer
-Automates de détermination de la Vitesse de sédimentation
-BIOCODE HYCEL Lena (16 positions) / Therma (100 positions)
+ABL800, ABL80, ABL5, NP7 de Radiometer</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Automates de détermination de la Vitesse de sédimentation</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>BIOCODE HYCEL Lena (16 positions) / Therma (100 positions)
 SRS100/II, SRS 20/II de Greiner Bio-One
 Test 1H de Alifax SpA
 COFIM50 de COFIM
@@ -695,9 +1342,43 @@
 Sedi/SediSystem (I et II) de Becton-Dickinson
 Ves-Matic 30, Ves-Matic CUBE 80, Ves-Matic CUBE 200 de Menarini diagnostics
 i-SED de ALCOR Scientific
-MixRate x10, x20, x100 de Elitech France
-Automates de biologie moléculaire
-Certains de ces automates permettent d'amplifier les acides nucléiques par différentes techniques comme la PCR ou la NASBA pour ainsi détecter des organismes infectieux ou des gènes défectueux par exemple. 
+MixRate x10, x20, x100 de Elitech France</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Automates de biologie moléculaire</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains de ces automates permettent d'amplifier les acides nucléiques par différentes techniques comme la PCR ou la NASBA pour ainsi détecter des organismes infectieux ou des gènes défectueux par exemple. 
 LightCycler de Roche diagnostics
 Chaines Amplilink/Amplicor/TaqMan de Roche diagnostics
 Rotor-Gene de Corbett Research
@@ -706,8 +1387,43 @@
 Smart Cycler de Cepheid
 GeneXpert de Cepheid…
 Le système BD MAX est la première plateforme de biologie moléculaire entièrement automatisée et ouverte, permettant la réalisation de tests unitaires et/ou en séries. Cet automate nouvelle génération permet une utilisation simple, flexible et polyvalente des tests de biologie moléculaire.
-Chaînes d'automates
-Les entreprises du diagnostic in vitro essayent dorénavant de vendre des chaînes d'automates, c'est-à-dire un système permettant le transfert automatique des tubes vers les différents types d'automates de la même marque. Ces systèmes peuvent inclure la gestion automatisée d'une sérothèque.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Automate_d'analyses_médicales</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Automate_d%27analyses_m%C3%A9dicales</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Groupes et listes d'automates</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Chaînes d'automates</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les entreprises du diagnostic in vitro essayent dorénavant de vendre des chaînes d'automates, c'est-à-dire un système permettant le transfert automatique des tubes vers les différents types d'automates de la même marque. Ces systèmes peuvent inclure la gestion automatisée d'une sérothèque.
 </t>
         </is>
       </c>
